--- a/examples/metrics/confusion_matrix_secteur.xlsx
+++ b/examples/metrics/confusion_matrix_secteur.xlsx
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -611,58 +611,58 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V2" t="n">
         <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -729,38 +729,38 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>8</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -920,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1102,88 +1102,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>259</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>13</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>16</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>254</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>18</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>18</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1529,49 +1529,49 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1602,91 +1602,91 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>244</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>247</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1814,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2102,20 +2102,20 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2402,22 +2402,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="U20" t="n">
         <v>4</v>
@@ -2505,82 +2505,82 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>930</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>928</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2</v>
-      </c>
       <c r="AB21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2826,16 +2826,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
         <v>1</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>2</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2971,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -3062,19 +3062,19 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>9</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>10</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>13</v>
-      </c>
       <c r="Z26" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3105,67 +3105,67 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3214,11 +3214,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="AC28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3589,10 +3589,10 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3665,31 +3665,31 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
         <v>1</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
       </c>
       <c r="AF32" t="n">
         <v>187</v>
